--- a/data/schedules/Spring2023Schedule.xlsx
+++ b/data/schedules/Spring2023Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263520F4-117B-4025-ABAA-082A238D265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A73ED95-859B-4EF6-B80D-3EDFDD3DFC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{9584355D-9510-432C-A84B-A2CEEF79C7DD}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>813-995-3100</t>
   </si>
   <si>
-    <t>DNP</t>
-  </si>
-  <si>
     <t>Jason Bohrer</t>
   </si>
   <si>
@@ -138,13 +135,16 @@
     <t>470-646-4492</t>
   </si>
   <si>
-    <t>Shelia Lowe</t>
-  </si>
-  <si>
-    <t>205-960-0472</t>
-  </si>
-  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Shakir Donley</t>
+  </si>
+  <si>
+    <t>662-307-0344</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
   <dimension ref="A2:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F30" sqref="F30"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>44936</v>
@@ -656,55 +656,55 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R3" s="6" t="e">
         <f>COUNTIF(B3:Q3, "W")/(COUNTIF(B3:Q3, "W")+COUNTIF(B3:Q3, "L"))</f>
@@ -719,67 +719,67 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U10" si="1">COUNTIF(B3:Q3, "A")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V10" si="2">U3-T3</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R4" s="6" t="e">
         <f t="shared" ref="R4:R10" si="3">COUNTIF(B4:Q4, "W")/(COUNTIF(B4:Q4, "W")+COUNTIF(B4:Q4, "L"))</f>
@@ -794,14 +794,14 @@
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V4">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -809,52 +809,52 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R5" s="6" t="e">
         <f t="shared" si="3"/>
@@ -869,11 +869,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W5" t="s">
         <v>7</v>
@@ -881,55 +881,55 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R6" s="6" t="e">
         <f t="shared" si="3"/>
@@ -944,67 +944,67 @@
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R7" s="6" t="e">
         <f t="shared" si="3"/>
@@ -1019,67 +1019,67 @@
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R8" s="6" t="e">
         <f t="shared" si="3"/>
@@ -1094,67 +1094,67 @@
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R9" s="6" t="e">
         <f t="shared" si="3"/>
@@ -1169,67 +1169,67 @@
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R10" s="6" t="e">
         <f t="shared" si="3"/>
@@ -1244,19 +1244,19 @@
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="e">
         <f t="shared" ref="B11:Q11" si="5">COUNTIF(B3:B10, "W")/(COUNTIF(B3:B10, "W")+COUNTIF(B3:B10, "L"))</f>
@@ -1336,16 +1336,16 @@
       </c>
       <c r="U11" s="2">
         <f>SUM(U3:U10)</f>
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="V11" s="2">
         <f>SUM(V3:V10)</f>
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>44936</v>
@@ -1431,55 +1431,55 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R15" s="6" t="e">
         <f>COUNTIF(B15:Q15, "W")/(COUNTIF(B15:Q15, "W")+COUNTIF(B15:Q15, "L"))</f>
@@ -1501,60 +1501,60 @@
         <v>10</v>
       </c>
       <c r="W15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R16" s="6" t="e">
         <f t="shared" ref="R16:R22" si="9">COUNTIF(B16:Q16, "W")/(COUNTIF(B16:Q16, "W")+COUNTIF(B16:Q16, "L"))</f>
@@ -1576,60 +1576,60 @@
         <v>10</v>
       </c>
       <c r="W16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R17" s="6" t="e">
         <f t="shared" si="9"/>
@@ -1651,60 +1651,60 @@
         <v>10</v>
       </c>
       <c r="W17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R18" s="6" t="e">
         <f t="shared" si="9"/>
@@ -1719,67 +1719,67 @@
       </c>
       <c r="U18">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R19" s="6" t="e">
         <f t="shared" si="9"/>
@@ -1801,60 +1801,60 @@
         <v>10</v>
       </c>
       <c r="W19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R20" s="6" t="e">
         <f t="shared" si="9"/>
@@ -1876,60 +1876,60 @@
         <v>10</v>
       </c>
       <c r="W20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R21" s="6" t="e">
         <f t="shared" si="9"/>
@@ -1951,60 +1951,60 @@
         <v>10</v>
       </c>
       <c r="W21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R22" s="6" t="e">
         <f t="shared" si="9"/>
@@ -2026,12 +2026,12 @@
         <v>10</v>
       </c>
       <c r="W22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="e">
         <f>COUNTIF(B15:B22, "W")/(COUNTIF(B15:B22, "W")+COUNTIF(B15:B22, "L"))</f>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="U23" s="2">
         <f>SUM(U15:U22)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V23" s="2">
         <f>SUM(V15:V22)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2123,7 @@
     <sortCondition ref="V3:V10"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:Q10 B15:Q22" xr:uid="{800ED500-2E94-4CC6-8AF0-CEB55BF076DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:Q22 B3:Q10" xr:uid="{800ED500-2E94-4CC6-8AF0-CEB55BF076DD}">
       <formula1>"A,NA,DNP,L,W"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/schedules/Spring2023Schedule.xlsx
+++ b/data/schedules/Spring2023Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A73ED95-859B-4EF6-B80D-3EDFDD3DFC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F199A-BCB4-4753-8D9C-790E2160567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{9584355D-9510-432C-A84B-A2CEEF79C7DD}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="36">
   <si>
     <t>Record</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>662-307-0344</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -543,9 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA30A97-9145-4EDA-8DB9-44B6A1233BAB}">
   <dimension ref="A2:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -706,20 +715,20 @@
       <c r="Q3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="6" t="e">
+      <c r="R3" s="6">
         <f>COUNTIF(B3:Q3, "W")/(COUNTIF(B3:Q3, "W")+COUNTIF(B3:Q3, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>6</v>
       </c>
       <c r="T3">
         <f>MAX(S3-COUNTIF(B3:Q3, "W")-COUNTIF(B3:Q3, "L"), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U10" si="1">COUNTIF(B3:Q3, "A")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V10" si="2">U3-T3</f>
@@ -734,7 +743,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -794,11 +803,11 @@
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4" t="s">
         <v>20</v>
@@ -809,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -869,11 +878,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W5" t="s">
         <v>7</v>
@@ -884,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -944,11 +953,11 @@
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W6" t="s">
         <v>13</v>
@@ -959,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1006,20 +1015,20 @@
       <c r="Q7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="6" t="e">
+      <c r="R7" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>6</v>
       </c>
       <c r="T7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
@@ -1034,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1094,11 +1103,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W8" t="s">
         <v>11</v>
@@ -1109,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1169,11 +1178,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W9" t="s">
         <v>9</v>
@@ -1184,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1231,20 +1240,20 @@
       <c r="Q10" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="6" t="e">
+      <c r="R10" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
@@ -1258,9 +1267,9 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="e">
+      <c r="B11" s="5">
         <f t="shared" ref="B11:Q11" si="5">COUNTIF(B3:B10, "W")/(COUNTIF(B3:B10, "W")+COUNTIF(B3:B10, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5" t="e">
         <f t="shared" si="5"/>
@@ -1322,9 +1331,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="7" t="e">
+      <c r="R11" s="7">
         <f>AVERAGEIF(B11:Q11, "&gt;=0")</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2">
         <f>SUM(S3:S10)</f>
@@ -1332,15 +1341,15 @@
       </c>
       <c r="T11" s="2">
         <f>SUM(T3:T10)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U11" s="2">
         <f>SUM(U3:U10)</f>
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V11" s="2">
         <f>SUM(V3:V10)</f>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1434,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1494,11 +1503,11 @@
       </c>
       <c r="U15">
         <f t="shared" ref="U15:U20" si="7">COUNTIF(B15:Q15, "A")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V15">
         <f t="shared" ref="V15:V20" si="8">U15-T15</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W15" t="s">
         <v>9</v>
@@ -1509,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1569,11 +1578,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W16" t="s">
         <v>11</v>
@@ -1584,7 +1593,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1631,20 +1640,20 @@
       <c r="Q17" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="6" t="e">
+      <c r="R17" s="6">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>6</v>
       </c>
       <c r="T17">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
@@ -1659,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1706,20 +1715,20 @@
       <c r="Q18" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="6" t="e">
+      <c r="R18" s="6">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>6</v>
       </c>
       <c r="T18">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
@@ -1734,7 +1743,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1781,20 +1790,20 @@
       <c r="Q19" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="6" t="e">
+      <c r="R19" s="6">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>6</v>
       </c>
       <c r="T19">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U19">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
@@ -1809,7 +1818,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1869,11 +1878,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W20" t="s">
         <v>28</v>
@@ -1884,7 +1893,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -1944,11 +1953,11 @@
       </c>
       <c r="U21">
         <f>COUNTIF(B21:Q21, "A")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V21">
         <f>U21-T21</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W21" t="s">
         <v>27</v>
@@ -1959,7 +1968,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2006,20 +2015,20 @@
       <c r="Q22" t="s">
         <v>29</v>
       </c>
-      <c r="R22" s="6" t="e">
+      <c r="R22" s="6">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>6</v>
       </c>
       <c r="T22">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <f>COUNTIF(B22:Q22, "A")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V22">
         <f>U22-T22</f>
@@ -2033,9 +2042,9 @@
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="e">
+      <c r="B23" s="5">
         <f>COUNTIF(B15:B22, "W")/(COUNTIF(B15:B22, "W")+COUNTIF(B15:B22, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="5" t="e">
         <f t="shared" ref="C23:D23" si="11">COUNTIF(C15:C22, "W")/(COUNTIF(C15:C22, "W")+COUNTIF(C15:C22, "L"))</f>
@@ -2097,9 +2106,9 @@
         <f t="shared" ref="Q23" si="24">COUNTIF(Q15:Q22, "W")/(COUNTIF(Q15:Q22, "W")+COUNTIF(Q15:Q22, "L"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="7" t="e">
+      <c r="R23" s="7">
         <f>AVERAGEIF(B23:Q23, "&gt;=0")</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="2">
         <f>SUM(S15:S22)</f>
@@ -2107,15 +2116,15 @@
       </c>
       <c r="T23" s="2">
         <f>SUM(T15:T22)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U23" s="2">
         <f>SUM(U15:U22)</f>
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V23" s="2">
         <f>SUM(V15:V22)</f>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedules/Spring2023Schedule.xlsx
+++ b/data/schedules/Spring2023Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F199A-BCB4-4753-8D9C-790E2160567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429379A-04E0-491B-9039-24B1DF2F6900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{9584355D-9510-432C-A84B-A2CEEF79C7DD}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="37">
   <si>
     <t>Record</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Shelia Lowe</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,9 +555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA30A97-9145-4EDA-8DB9-44B6A1233BAB}">
   <dimension ref="A2:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +674,10 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -717,22 +720,22 @@
       </c>
       <c r="R3" s="6">
         <f>COUNTIF(B3:Q3, "W")/(COUNTIF(B3:Q3, "W")+COUNTIF(B3:Q3, "L"))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S3">
         <v>6</v>
       </c>
       <c r="T3">
         <f>MAX(S3-COUNTIF(B3:Q3, "W")-COUNTIF(B3:Q3, "L"), 0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U10" si="1">COUNTIF(B3:Q3, "A")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V10" si="2">U3-T3</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W3" t="s">
         <v>23</v>
@@ -746,10 +749,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -790,20 +793,20 @@
       <c r="Q4" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="6" t="e">
+      <c r="R4" s="6">
         <f t="shared" ref="R4:R10" si="3">COUNTIF(B4:Q4, "W")/(COUNTIF(B4:Q4, "W")+COUNTIF(B4:Q4, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="S4">
         <v>6</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T10" si="4">MAX(S4-COUNTIF(B4:Q4, "W")-COUNTIF(B4:Q4, "L"), 0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V4">
         <f t="shared" si="2"/>
@@ -821,10 +824,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -865,24 +868,24 @@
       <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="6" t="e">
+      <c r="R5" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>6</v>
       </c>
       <c r="T5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W5" t="s">
         <v>7</v>
@@ -896,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -940,24 +943,24 @@
       <c r="Q6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="6" t="e">
+      <c r="R6" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>6</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6" t="s">
         <v>13</v>
@@ -971,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1017,18 +1020,18 @@
       </c>
       <c r="R7" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S7">
         <v>6</v>
       </c>
       <c r="T7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
@@ -1046,10 +1049,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -1090,24 +1093,24 @@
       <c r="Q8" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="6" t="e">
+      <c r="R8" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>6</v>
       </c>
       <c r="T8">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V8">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W8" t="s">
         <v>11</v>
@@ -1121,10 +1124,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -1165,20 +1168,20 @@
       <c r="Q9" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="6" t="e">
+      <c r="R9" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>6</v>
       </c>
       <c r="T9">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
@@ -1196,10 +1199,10 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1242,22 +1245,22 @@
       </c>
       <c r="R10" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W10" t="s">
         <v>18</v>
@@ -1271,13 +1274,13 @@
         <f t="shared" ref="B11:Q11" si="5">COUNTIF(B3:B10, "W")/(COUNTIF(B3:B10, "W")+COUNTIF(B3:B10, "L"))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="e">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="5" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="5" t="e">
         <f t="shared" si="5"/>
@@ -1333,7 +1336,7 @@
       </c>
       <c r="R11" s="7">
         <f>AVERAGEIF(B11:Q11, "&gt;=0")</f>
-        <v>1</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="S11" s="2">
         <f>SUM(S3:S10)</f>
@@ -1341,15 +1344,15 @@
       </c>
       <c r="T11" s="2">
         <f>SUM(T3:T10)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U11" s="2">
         <f>SUM(U3:U10)</f>
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="V11" s="2">
         <f>SUM(V3:V10)</f>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1446,10 +1449,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -1490,20 +1493,20 @@
       <c r="Q15" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="6" t="e">
+      <c r="R15" s="6">
         <f>COUNTIF(B15:Q15, "W")/(COUNTIF(B15:Q15, "W")+COUNTIF(B15:Q15, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="S15">
         <v>6</v>
       </c>
       <c r="T15">
         <f>MAX(S15-COUNTIF(B15:Q15, "W")-COUNTIF(B15:Q15, "L"), 0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U15">
         <f t="shared" ref="U15:U20" si="7">COUNTIF(B15:Q15, "A")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V15">
         <f t="shared" ref="V15:V20" si="8">U15-T15</f>
@@ -1521,10 +1524,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1565,24 +1568,24 @@
       <c r="Q16" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="6" t="e">
+      <c r="R16" s="6">
         <f t="shared" ref="R16:R22" si="9">COUNTIF(B16:Q16, "W")/(COUNTIF(B16:Q16, "W")+COUNTIF(B16:Q16, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>6</v>
       </c>
       <c r="T16">
         <f t="shared" ref="T16:T22" si="10">MAX(S16-COUNTIF(B16:Q16, "W")-COUNTIF(B16:Q16, "L"), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W16" t="s">
         <v>11</v>
@@ -1590,16 +1593,16 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="R17" s="6">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>6</v>
@@ -1653,11 +1656,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W17" t="s">
         <v>23</v>
@@ -1671,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1717,18 +1720,18 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S18">
         <v>6</v>
       </c>
       <c r="T18">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
@@ -1746,10 +1749,10 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -1792,22 +1795,22 @@
       </c>
       <c r="R19" s="6">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S19">
         <v>6</v>
       </c>
       <c r="T19">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W19" t="s">
         <v>18</v>
@@ -1821,10 +1824,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -1878,11 +1881,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W20" t="s">
         <v>28</v>
@@ -1896,10 +1899,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1940,24 +1943,24 @@
       <c r="Q21" t="s">
         <v>29</v>
       </c>
-      <c r="R21" s="6" t="e">
+      <c r="R21" s="6">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>6</v>
       </c>
       <c r="T21">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U21">
         <f>COUNTIF(B21:Q21, "A")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V21">
         <f>U21-T21</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W21" t="s">
         <v>27</v>
@@ -1971,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -2017,18 +2020,18 @@
       </c>
       <c r="R22" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S22">
         <v>6</v>
       </c>
       <c r="T22">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22">
         <f>COUNTIF(B22:Q22, "A")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V22">
         <f>U22-T22</f>
@@ -2044,15 +2047,15 @@
       </c>
       <c r="B23" s="5">
         <f>COUNTIF(B15:B22, "W")/(COUNTIF(B15:B22, "W")+COUNTIF(B15:B22, "L"))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:D23" si="11">COUNTIF(C15:C22, "W")/(COUNTIF(C15:C22, "W")+COUNTIF(C15:C22, "L"))</f>
         <v>0.5</v>
       </c>
-      <c r="C23" s="5" t="e">
-        <f t="shared" ref="C23:D23" si="11">COUNTIF(C15:C22, "W")/(COUNTIF(C15:C22, "W")+COUNTIF(C15:C22, "L"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="5" t="e">
+      <c r="D23" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="5" t="e">
         <f t="shared" ref="E23" si="12">COUNTIF(E15:E22, "W")/(COUNTIF(E15:E22, "W")+COUNTIF(E15:E22, "L"))</f>
@@ -2108,7 +2111,7 @@
       </c>
       <c r="R23" s="7">
         <f>AVERAGEIF(B23:Q23, "&gt;=0")</f>
-        <v>0.5</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="S23" s="2">
         <f>SUM(S15:S22)</f>
@@ -2116,15 +2119,15 @@
       </c>
       <c r="T23" s="2">
         <f>SUM(T15:T22)</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="U23" s="2">
         <f>SUM(U15:U22)</f>
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="V23" s="2">
         <f>SUM(V15:V22)</f>
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedules/Spring2023Schedule.xlsx
+++ b/data/schedules/Spring2023Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429379A-04E0-491B-9039-24B1DF2F6900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E68F7-9D78-4F6F-A617-E47E61BE031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{9584355D-9510-432C-A84B-A2CEEF79C7DD}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,13 +1055,13 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -1106,11 +1106,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W8" t="s">
         <v>11</v>
@@ -1205,7 +1205,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W10" t="s">
         <v>18</v>
@@ -1348,11 +1348,11 @@
       </c>
       <c r="U11" s="2">
         <f>SUM(U3:U10)</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V11" s="2">
         <f>SUM(V3:V10)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1530,13 +1530,13 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W16" t="s">
         <v>11</v>
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
@@ -1806,11 +1806,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W19" t="s">
         <v>18</v>
@@ -1977,7 +1977,7 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="U22">
         <f>COUNTIF(B22:Q22, "A")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V22">
         <f>U22-T22</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W22" t="s">
         <v>32</v>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="U23" s="2">
         <f>SUM(U15:U22)</f>
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="V23" s="2">
         <f>SUM(V15:V22)</f>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedules/Spring2023Schedule.xlsx
+++ b/data/schedules/Spring2023Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E68F7-9D78-4F6F-A617-E47E61BE031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A25F16-208B-402A-88B4-755E8E6AC0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{9584355D-9510-432C-A84B-A2CEEF79C7DD}"/>
+    <workbookView xWindow="2055" yWindow="1665" windowWidth="16410" windowHeight="11295" xr2:uid="{9584355D-9510-432C-A84B-A2CEEF79C7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring2023Schedule" sheetId="2" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -731,11 +731,11 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U10" si="1">COUNTIF(B3:Q3, "A")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V10" si="2">U3-T3</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W3" t="s">
         <v>23</v>
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -795,18 +795,18 @@
       </c>
       <c r="R4" s="6">
         <f t="shared" ref="R4:R10" si="3">COUNTIF(B4:Q4, "W")/(COUNTIF(B4:Q4, "W")+COUNTIF(B4:Q4, "L"))</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S4">
         <v>6</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T10" si="4">MAX(S4-COUNTIF(B4:Q4, "W")-COUNTIF(B4:Q4, "L"), 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4">
         <f t="shared" si="2"/>
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -870,18 +870,18 @@
       </c>
       <c r="R5" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
         <v>6</v>
       </c>
       <c r="T5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
@@ -905,7 +905,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -945,18 +945,18 @@
       </c>
       <c r="R6" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
         <v>6</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6">
         <f t="shared" si="2"/>
@@ -980,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1020,18 +1020,18 @@
       </c>
       <c r="R7" s="6">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S7">
         <v>6</v>
       </c>
       <c r="T7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
@@ -1130,7 +1130,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W9" t="s">
         <v>9</v>
@@ -1282,9 +1282,9 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E11" s="5" t="e">
+      <c r="E11" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
       <c r="F11" s="5" t="e">
         <f t="shared" si="5"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="R11" s="7">
         <f>AVERAGEIF(B11:Q11, "&gt;=0")</f>
-        <v>0.46666666666666662</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="S11" s="2">
         <f>SUM(S3:S10)</f>
@@ -1344,15 +1344,15 @@
       </c>
       <c r="T11" s="2">
         <f>SUM(T3:T10)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U11" s="2">
         <f>SUM(U3:U10)</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="V11" s="2">
         <f>SUM(V3:V10)</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="U15">
         <f t="shared" ref="U15:U20" si="7">COUNTIF(B15:Q15, "A")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15">
         <f t="shared" ref="V15:V20" si="8">U15-T15</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W15" t="s">
         <v>9</v>
@@ -1605,7 +1605,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
@@ -1645,18 +1645,18 @@
       </c>
       <c r="R17" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S17">
         <v>6</v>
       </c>
       <c r="T17">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
@@ -1680,7 +1680,7 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -1720,18 +1720,18 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S18">
         <v>6</v>
       </c>
       <c r="T18">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
@@ -1830,7 +1830,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
@@ -1881,11 +1881,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W20" t="s">
         <v>28</v>
@@ -1905,7 +1905,7 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
@@ -1956,11 +1956,11 @@
       </c>
       <c r="U21">
         <f>COUNTIF(B21:Q21, "A")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V21">
         <f>U21-T21</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W21" t="s">
         <v>27</v>
@@ -1980,7 +1980,7 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
@@ -2020,18 +2020,18 @@
       </c>
       <c r="R22" s="6">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S22">
         <v>6</v>
       </c>
       <c r="T22">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U22">
         <f>COUNTIF(B22:Q22, "A")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V22">
         <f>U22-T22</f>
@@ -2057,9 +2057,9 @@
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="E23" s="5" t="e">
+      <c r="E23" s="5">
         <f t="shared" ref="E23" si="12">COUNTIF(E15:E22, "W")/(COUNTIF(E15:E22, "W")+COUNTIF(E15:E22, "L"))</f>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F23" s="5" t="e">
         <f t="shared" ref="F23" si="13">COUNTIF(F15:F22, "W")/(COUNTIF(F15:F22, "W")+COUNTIF(F15:F22, "L"))</f>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="R23" s="7">
         <f>AVERAGEIF(B23:Q23, "&gt;=0")</f>
-        <v>0.3611111111111111</v>
+        <v>0.4375</v>
       </c>
       <c r="S23" s="2">
         <f>SUM(S15:S22)</f>
@@ -2119,15 +2119,15 @@
       </c>
       <c r="T23" s="2">
         <f>SUM(T15:T22)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U23" s="2">
         <f>SUM(U15:U22)</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="V23" s="2">
         <f>SUM(V15:V22)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
